--- a/src/indice html.xlsx
+++ b/src/indice html.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12000"/>
+    <workbookView windowWidth="27945" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,44 +27,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="155">
   <si>
     <t>1. Introducción HTML</t>
   </si>
   <si>
+    <t>Falta segun Manz</t>
+  </si>
+  <si>
+    <t>https://lenguajehtml.com/html/documento/validacion-html/</t>
+  </si>
+  <si>
+    <t>Validación de errores HTML</t>
+  </si>
+  <si>
     <t>2. Estructura del Documento</t>
   </si>
   <si>
+    <t>https://lenguajehtml.com/html/documento/atributos-metadatos-e-idioma/</t>
+  </si>
+  <si>
+    <t>Atributos de metadatos e idioma</t>
+  </si>
+  <si>
     <t>&lt;!DOCTYPE html&gt;</t>
   </si>
   <si>
+    <t>https://lenguajehtml.com/html/documento/etiquetas-html-obsoletas/</t>
+  </si>
+  <si>
+    <t>Etiquetas HTML obsoletas</t>
+  </si>
+  <si>
     <t>&lt;html&gt;</t>
   </si>
   <si>
     <t>&lt;head&gt;</t>
   </si>
   <si>
+    <t>&lt;body&gt;</t>
+  </si>
+  <si>
+    <t>3. Metadatos</t>
+  </si>
+  <si>
+    <t>&lt;meta&gt;</t>
+  </si>
+  <si>
+    <t>&lt;base&gt;</t>
+  </si>
+  <si>
+    <t>&lt;link&gt;</t>
+  </si>
+  <si>
+    <t>&lt;style&gt;</t>
+  </si>
+  <si>
     <t>&lt;title&gt;</t>
   </si>
   <si>
-    <t>&lt;body&gt;</t>
-  </si>
-  <si>
-    <t>3. Metadatos</t>
-  </si>
-  <si>
-    <t>&lt;meta&gt;</t>
-  </si>
-  <si>
-    <t>&lt;base&gt;</t>
-  </si>
-  <si>
-    <t>&lt;link&gt;</t>
-  </si>
-  <si>
-    <t>&lt;style&gt;</t>
-  </si>
-  <si>
     <t>4. Secciones del Documento</t>
   </si>
   <si>
@@ -86,21 +107,21 @@
     <t>&lt;aside&gt;</t>
   </si>
   <si>
+    <t>&lt;nav&gt;</t>
+  </si>
+  <si>
+    <t>&lt;address&gt;</t>
+  </si>
+  <si>
+    <t>5.Elementos de Contenedor y Genéricos</t>
+  </si>
+  <si>
     <t>&lt;div&gt;</t>
   </si>
   <si>
-    <t>&lt;nav&gt;</t>
-  </si>
-  <si>
     <t>&lt;span&gt;</t>
   </si>
   <si>
-    <t>&lt;address&gt;</t>
-  </si>
-  <si>
-    <t>5.Elementos de Contenedor y Genéricos</t>
-  </si>
-  <si>
     <t>5. Etiquetas de Texto</t>
   </si>
   <si>
@@ -344,75 +365,75 @@
     <t>&lt;summary&gt;</t>
   </si>
   <si>
+    <t>&lt;dialog&gt;</t>
+  </si>
+  <si>
     <t>Elementos Obsoletos (HTML 4)</t>
   </si>
   <si>
-    <t>&lt;dialog&gt;</t>
-  </si>
-  <si>
     <t>&lt;time&gt;</t>
   </si>
   <si>
+    <t>&lt;wbr&gt;</t>
+  </si>
+  <si>
     <t>&lt;acronym&gt;</t>
   </si>
   <si>
-    <t>&lt;wbr&gt;</t>
-  </si>
-  <si>
     <t>&lt;applet&gt;</t>
   </si>
   <si>
+    <t>13. Elementos Incrustados</t>
+  </si>
+  <si>
     <t>&lt;basefont&gt;</t>
   </si>
   <si>
-    <t>13. Elementos Incrustados</t>
-  </si>
-  <si>
     <t>&lt;big&gt;</t>
   </si>
   <si>
+    <t>&lt;iframe&gt;</t>
+  </si>
+  <si>
     <t>&lt;blink&gt;</t>
   </si>
   <si>
-    <t>&lt;iframe&gt;</t>
+    <t>&lt;embed&gt;</t>
   </si>
   <si>
     <t>&lt;center&gt;</t>
   </si>
   <si>
-    <t>&lt;embed&gt;</t>
+    <t>&lt;object&gt;</t>
   </si>
   <si>
     <t>&lt;font&gt;</t>
   </si>
   <si>
-    <t>&lt;object&gt;</t>
+    <t>&lt;param&gt;</t>
   </si>
   <si>
     <t>&lt;frame&gt;</t>
   </si>
   <si>
-    <t>&lt;param&gt;</t>
-  </si>
-  <si>
     <t>&lt;frameset&gt;</t>
   </si>
   <si>
+    <t>14. Etiquetas de Programación y Scripts</t>
+  </si>
+  <si>
     <t>&lt;noframes&gt;</t>
   </si>
   <si>
-    <t>14. Etiquetas de Programación y Scripts</t>
-  </si>
-  <si>
     <t>&lt;strike&gt;</t>
   </si>
   <si>
+    <t>&lt;script&gt;</t>
+  </si>
+  <si>
     <t>&lt;tt&gt;</t>
   </si>
   <si>
-    <t>&lt;script&gt;</t>
-  </si>
-  <si>
     <t>&lt;noscript&gt;</t>
   </si>
   <si>
@@ -431,10 +452,10 @@
     <t>&lt;math&gt;</t>
   </si>
   <si>
+    <t>&lt;slot&gt;</t>
+  </si>
+  <si>
     <t>&lt;bgsound&gt;</t>
-  </si>
-  <si>
-    <t>&lt;slot&gt;</t>
   </si>
   <si>
     <t>15. Etiquetas Obsoletas o No Recomendadas</t>
@@ -483,7 +504,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +514,21 @@
     </font>
     <font>
       <b/>
+      <sz val="14.05"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14.05"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -644,12 +680,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -964,58 +1012,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,75 +1069,87 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1103,6 +1157,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1667,10 +1727,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J169"/>
+  <dimension ref="C2:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E133" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1679,1661 +1739,1737 @@
     <col min="4" max="4" width="62.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="41.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="68.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="61.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="27.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18.75" spans="4:6">
-      <c r="D3" s="1"/>
-      <c r="F3" s="1" t="s">
+    <row r="2" ht="18.75" spans="6:11">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="18.75" spans="3:3">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" ht="18.75" spans="4:9">
-      <c r="D5" s="2"/>
-      <c r="F5" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="4:11">
+      <c r="D3" s="3"/>
+      <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="3:11">
+      <c r="C4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="4:11">
+      <c r="D5" s="4"/>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="3:10">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" ht="18.75" spans="3:10">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" ht="18.75" spans="3:10">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="2"/>
-      <c r="D9"/>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" ht="18.75" spans="3:9">
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" ht="18.75" spans="6:9">
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="14" spans="6:7">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" ht="18.75" spans="3:10">
+      <c r="C9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" ht="18.75" spans="3:10">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" ht="18.75" spans="3:10">
+      <c r="C11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" ht="18.75" spans="9:10">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" ht="18.75" spans="6:10">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" ht="18.75" spans="6:10">
       <c r="F14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" spans="3:7">
-      <c r="C15" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" ht="18.75" spans="3:10">
+      <c r="C15" s="3"/>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7">
+        <v>16</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" ht="18.75" spans="6:10">
       <c r="F16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="F17" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" ht="18.75" spans="3:10">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" spans="3:9">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" ht="18.75" spans="3:7">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" ht="18.75" spans="3:10">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" ht="18.75" spans="3:10">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" ht="18.75" spans="3:10">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" ht="18.75" spans="3:10">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" ht="18.75" spans="3:10">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" ht="18.75" spans="3:10">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" ht="18.75" spans="3:10">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" ht="18.75" spans="3:10">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="D26" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" ht="18.75" spans="4:10">
+      <c r="D26" s="4"/>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7">
-      <c r="D27" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" ht="18.75" spans="3:10">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7">
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" ht="18.75" spans="3:6">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" spans="3:9">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" ht="18.75" spans="3:7">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="G32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" ht="18.75" spans="9:10">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" ht="18.75" spans="3:10">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" ht="18.75" spans="3:10">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" ht="18.75" spans="3:10">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" ht="18.75" spans="3:10">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" ht="18.75" spans="3:10">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" ht="18.75" spans="3:10">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
       <c r="G34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" ht="18.75" spans="3:7">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="F36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="3:7">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="3:7">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" spans="3:9">
+      <c r="C39" s="4"/>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" ht="18.75" spans="3:7">
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" ht="18.75" spans="3:9">
-      <c r="C41" s="2"/>
-      <c r="D41"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="4"/>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" ht="18.75" spans="3:7">
-      <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
-      <c r="F42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="C43" s="2"/>
-      <c r="D43"/>
-      <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" ht="18.75" spans="3:7">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="3:7">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" ht="18.75" spans="3:7">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="F46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="4"/>
+      <c r="F46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="4"/>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7">
-      <c r="D48" s="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7">
-      <c r="D49" s="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" spans="4:7">
+      <c r="D49" s="3"/>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9">
       <c r="F50" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" ht="18.75" spans="4:7">
-      <c r="D51" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51" s="4"/>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="6:9">
+        <v>50</v>
+      </c>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="4:9">
+      <c r="D52" s="4"/>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="4:9">
-      <c r="D53" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="6:9">
       <c r="F53" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="4:9">
-      <c r="D54" s="2"/>
-      <c r="F54" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="6:9">
-      <c r="F55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" ht="18.75" spans="3:7">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="F56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" ht="18.75" spans="6:9">
-      <c r="F57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="3:7">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="F59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" ht="18.75" spans="3:7">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="F62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="4:7">
-      <c r="D64" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" ht="18.75" spans="3:7">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="F54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" spans="6:9">
+      <c r="F55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" ht="18.75" spans="3:7">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="F59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="D62" s="4"/>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7">
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" ht="18.75" spans="4:9">
+      <c r="D64" s="3"/>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7">
+        <v>62</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" ht="18.75" spans="3:7">
+      <c r="C65" s="3"/>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" ht="18.75" spans="4:9">
-      <c r="D66" s="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9">
+      <c r="D66" s="4"/>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>54</v>
-      </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" ht="18.75" spans="3:7">
-      <c r="C67" s="1"/>
-      <c r="D67"/>
-      <c r="F67" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="4:9">
-      <c r="D68" s="2"/>
-      <c r="F68" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" t="s">
-        <v>56</v>
-      </c>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="3:9">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="F69" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" t="s">
-        <v>57</v>
-      </c>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="3:9">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" ht="18.75" spans="3:7">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="F71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" ht="18.75" spans="4:9">
-      <c r="D73" s="2"/>
-      <c r="F73" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="4:6">
-      <c r="D74" s="2"/>
-      <c r="F74" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" ht="18.75" spans="3:9">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="F68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="D70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" ht="18.75" spans="4:9">
+      <c r="D71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="D72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" spans="3:9">
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="4:9">
+      <c r="D74" s="4"/>
+      <c r="I74" s="4"/>
     </row>
     <row r="75" ht="18.75" spans="3:9">
-      <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
-      <c r="F75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="4:9">
-      <c r="D76" s="2"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="3:9">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" ht="18.75" spans="3:9">
-      <c r="C78" s="2"/>
-      <c r="D78"/>
-      <c r="F78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" ht="18.75" spans="3:9">
-      <c r="C79" s="2"/>
-      <c r="D79" s="1"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="3:9">
-      <c r="C80" s="2"/>
-      <c r="D80"/>
-      <c r="F80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="3:9">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="F81" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="3:7">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="F83" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9">
-      <c r="D84" s="2"/>
-      <c r="F84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" ht="18.75" spans="4:9">
-      <c r="D85" s="2"/>
-      <c r="F85" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I85" s="1"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="F75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" ht="18.75" spans="3:9">
+      <c r="C77" s="4"/>
+      <c r="D77" s="3"/>
+      <c r="F77" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="C78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="F80" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9">
+      <c r="D82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" ht="18.75" spans="4:9">
+      <c r="D83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="4:7">
+      <c r="D84" s="4"/>
+      <c r="F84" t="s">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7">
+      <c r="D85" s="4"/>
+      <c r="F85" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="86" spans="4:7">
-      <c r="D86" s="2"/>
-      <c r="F86" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="4:7">
-      <c r="D87" s="2"/>
-      <c r="F87" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="4:7">
-      <c r="D88" s="2"/>
-      <c r="F88" t="s">
-        <v>72</v>
-      </c>
-      <c r="G88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="4:7">
-      <c r="D89" s="2"/>
-      <c r="G89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6">
-      <c r="D90" s="2"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" ht="18.75" spans="3:7">
-      <c r="C91" s="1"/>
-      <c r="D91" s="2"/>
-      <c r="F91" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4">
-      <c r="D92" s="2"/>
+      <c r="D86" s="4"/>
+      <c r="G86" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6">
+      <c r="D87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" ht="18.75" spans="4:7">
+      <c r="D88" s="4"/>
+      <c r="F88" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" ht="18.75" spans="3:4">
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="4:7">
+      <c r="D90" s="4"/>
+      <c r="F90" t="s">
+        <v>82</v>
+      </c>
+      <c r="G90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="F91" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="F92" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="93" spans="3:7">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="C93" s="4"/>
       <c r="F93" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G93" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94" spans="3:7">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" ht="18.75" spans="3:7">
+      <c r="C94" s="4"/>
+      <c r="D94" s="3"/>
       <c r="F94" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="3:7">
-      <c r="C95" s="2"/>
-      <c r="D95"/>
+      <c r="C95" s="4"/>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" ht="18.75" spans="3:7">
-      <c r="C96" s="2"/>
-      <c r="D96" s="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
       <c r="F96" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="3:7">
-      <c r="C97" s="2"/>
-      <c r="D97"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
       <c r="F97" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" spans="3:9">
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
       <c r="F98" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s">
-        <v>80</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I98" s="3"/>
     </row>
     <row r="99" spans="3:7">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="C99" s="4"/>
       <c r="F99" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G99" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" ht="18.75" spans="3:9">
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6">
+      <c r="C100" s="4"/>
       <c r="F100" t="s">
-        <v>82</v>
-      </c>
-      <c r="G100" t="s">
-        <v>82</v>
-      </c>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="3:7">
-      <c r="C101" s="2"/>
-      <c r="D101"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
       <c r="F101" t="s">
-        <v>83</v>
-      </c>
-      <c r="G101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="3:7">
-      <c r="C102" s="2"/>
-      <c r="F102" t="s">
-        <v>84</v>
-      </c>
-      <c r="G102" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6">
-      <c r="F103" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6">
-      <c r="F104" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" ht="18.75" spans="3:7">
-      <c r="C106" s="1"/>
-      <c r="F106" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" ht="18.75" spans="6:7">
+      <c r="F103" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" ht="18.75" spans="3:3">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="6:7">
+      <c r="F105" t="s">
+        <v>95</v>
+      </c>
+      <c r="G105" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="C106" s="4"/>
+      <c r="F106" t="s">
+        <v>96</v>
+      </c>
+      <c r="G106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" ht="18.75" spans="3:7">
+      <c r="C107" s="4"/>
+      <c r="D107" s="3"/>
+      <c r="F107" t="s">
+        <v>97</v>
+      </c>
+      <c r="G107" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="3:7">
-      <c r="C108" s="2"/>
-      <c r="D108"/>
+      <c r="C108" s="4"/>
       <c r="F108" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G108" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="109" ht="18.75" spans="3:7">
-      <c r="C109" s="2"/>
-      <c r="D109" s="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7">
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
       <c r="F109" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G109" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="3:7">
-      <c r="C110" s="2"/>
-      <c r="D110"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
       <c r="F110" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G110" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="3:7">
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
       <c r="F111" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G111" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="3:7">
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
       <c r="F112" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G112" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="3:7">
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="C113" s="4"/>
       <c r="F113" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G113" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="114" spans="3:7">
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" ht="18.75" spans="3:7">
+      <c r="C114" s="4"/>
+      <c r="D114" s="3"/>
       <c r="F114" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G114" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="115" spans="3:7">
-      <c r="C115" s="2"/>
-      <c r="D115"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" ht="18.75" spans="3:9">
+      <c r="C115" s="4"/>
       <c r="F115" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G115" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" ht="18.75" spans="3:7">
-      <c r="C116" s="2"/>
-      <c r="D116" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="3:7">
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
       <c r="F116" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G116" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" ht="18.75" spans="3:9">
-      <c r="C117" s="2"/>
-      <c r="D117"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7">
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
       <c r="F117" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G117" t="s">
-        <v>97</v>
-      </c>
-      <c r="I117" s="1"/>
+        <v>107</v>
+      </c>
     </row>
     <row r="118" spans="3:7">
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
       <c r="F118" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G118" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="3:7">
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="F119" t="s">
-        <v>99</v>
-      </c>
-      <c r="G119" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="120" spans="3:7">
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="F120" t="s">
-        <v>100</v>
-      </c>
-      <c r="G120" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="3:7">
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="F121" t="s">
-        <v>101</v>
-      </c>
-      <c r="G121" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" ht="18.75" spans="4:7">
-      <c r="D123" s="2"/>
-      <c r="F123" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="4:4">
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" ht="18.75" spans="3:9">
-      <c r="C125" s="1"/>
-      <c r="D125" s="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" ht="18.75" spans="4:7">
+      <c r="D120" s="4"/>
+      <c r="F120" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="4:7">
+      <c r="D122" s="4"/>
+      <c r="F122" t="s">
+        <v>110</v>
+      </c>
+      <c r="G122" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" ht="18.75" spans="3:9">
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+      <c r="F123" t="s">
+        <v>111</v>
+      </c>
+      <c r="G123" t="s">
+        <v>111</v>
+      </c>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="6:7">
+      <c r="F124" t="s">
+        <v>112</v>
+      </c>
+      <c r="G124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" ht="18.75" spans="3:10">
+      <c r="C125" s="4"/>
+      <c r="D125" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="F125" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G125" t="s">
-        <v>103</v>
-      </c>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="6:7">
+        <v>114</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="3:10">
+      <c r="C126" s="4"/>
       <c r="F126" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G126" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" ht="18.75" spans="3:10">
-      <c r="C127" s="2"/>
-      <c r="D127" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F127" t="s">
-        <v>106</v>
-      </c>
-      <c r="G127" t="s">
-        <v>106</v>
-      </c>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-    </row>
-    <row r="128" spans="3:10">
-      <c r="C128" s="2"/>
-      <c r="D128"/>
-      <c r="F128" t="s">
-        <v>107</v>
-      </c>
-      <c r="G128" t="s">
-        <v>107</v>
-      </c>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-    </row>
-    <row r="129" spans="3:10">
-      <c r="C129" s="2"/>
-      <c r="D129" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F129" t="s">
-        <v>109</v>
-      </c>
-      <c r="G129" t="s">
-        <v>109</v>
-      </c>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-    </row>
-    <row r="130" spans="3:10">
-      <c r="C130" s="2"/>
-      <c r="D130" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-    </row>
-    <row r="131" ht="18.75" spans="3:9">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" ht="18.75" spans="4:9">
-      <c r="D132" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="4:7">
-      <c r="D133" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F133" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="4:7">
-      <c r="D134" s="2" t="s">
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="3:10">
+      <c r="C127" s="4"/>
+      <c r="D127" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" ht="18.75" spans="3:10">
+      <c r="C128" s="4"/>
+      <c r="D128" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="F128" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="3:9">
+      <c r="C129" s="4"/>
+      <c r="D129" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" ht="18.75" spans="4:9">
+      <c r="D130" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="4:7">
+      <c r="D131" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7">
+      <c r="D132" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" ht="18.75" spans="3:7">
+      <c r="C133" s="3"/>
+      <c r="D133" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6">
+      <c r="D134" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F134" s="4"/>
     </row>
     <row r="135" ht="18.75" spans="3:7">
-      <c r="C135" s="1"/>
-      <c r="D135" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="136" spans="4:7">
-      <c r="D136" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F136" s="2" t="s">
+      <c r="C135" s="4"/>
+      <c r="D135" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136" s="4"/>
+      <c r="D136" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" s="4"/>
+      <c r="D137" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F137" t="s">
+        <v>133</v>
+      </c>
+      <c r="G137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7">
+      <c r="C138" s="4"/>
+      <c r="D138" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F138" t="s">
+        <v>135</v>
+      </c>
+      <c r="G138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7">
+      <c r="C139" s="4"/>
+      <c r="F139" t="s">
+        <v>136</v>
+      </c>
+      <c r="G139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7">
+      <c r="C140" s="4"/>
+      <c r="F140" t="s">
+        <v>137</v>
+      </c>
+      <c r="G140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7">
+      <c r="F141" t="s">
         <v>121</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G141" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="3:6">
-      <c r="C137" s="2"/>
-      <c r="D137" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" ht="18.75" spans="3:7">
-      <c r="C138" s="2"/>
-      <c r="D138" s="2" t="s">
+    <row r="142" spans="6:7">
+      <c r="F142" t="s">
         <v>123</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="139" spans="3:4">
-      <c r="C139" s="2"/>
-      <c r="D139" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="140" spans="3:7">
-      <c r="C140" s="2"/>
-      <c r="D140" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F140" t="s">
-        <v>127</v>
-      </c>
-      <c r="G140" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="141" spans="3:7">
-      <c r="C141" s="2"/>
-      <c r="F141" t="s">
-        <v>128</v>
-      </c>
-      <c r="G141" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="142" spans="3:7">
-      <c r="C142" s="2"/>
-      <c r="F142" t="s">
-        <v>129</v>
-      </c>
       <c r="G142" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" spans="6:7">
       <c r="F143" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G143" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="144" spans="6:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" ht="18.75" spans="3:7">
+      <c r="C144" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F144" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G144" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="145" spans="6:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" ht="18.75" spans="6:9">
       <c r="F145" t="s">
+        <v>139</v>
+      </c>
+      <c r="G145" t="s">
+        <v>139</v>
+      </c>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="3:7">
+      <c r="C146" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F146" t="s">
+        <v>140</v>
+      </c>
+      <c r="G146" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7">
+      <c r="C147" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G145" t="s">
+      <c r="F147" t="s">
+        <v>141</v>
+      </c>
+      <c r="G147" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" ht="18.75" spans="3:7">
+      <c r="C150" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7">
+      <c r="C151" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F151" t="s">
+        <v>116</v>
+      </c>
+      <c r="G151" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7">
+      <c r="C152" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F152" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="146" ht="18.75" spans="3:7">
-      <c r="C146" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="G152" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7">
+      <c r="C153" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F153" t="s">
         <v>119</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G153" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="147" ht="18.75" spans="6:9">
-      <c r="F147" t="s">
-        <v>121</v>
-      </c>
-      <c r="G147" t="s">
-        <v>121</v>
-      </c>
-      <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="3:7">
-      <c r="C148" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F148" t="s">
-        <v>132</v>
-      </c>
-      <c r="G148" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="149" spans="3:7">
-      <c r="C149" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F149" t="s">
-        <v>133</v>
-      </c>
-      <c r="G149" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="150" spans="3:7">
-      <c r="C150" s="2" t="s">
+    <row r="154" spans="3:7">
+      <c r="C154" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F150" t="s">
-        <v>135</v>
-      </c>
-      <c r="G150" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3">
-      <c r="C151" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3">
-      <c r="C152" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="153" ht="18.75" spans="3:7">
-      <c r="C153" s="2" t="s">
+      <c r="F154" t="s">
         <v>120</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="154" spans="3:7">
-      <c r="C154" s="2" t="s">
+      <c r="G154" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="6:7">
+      <c r="F155" t="s">
         <v>122</v>
       </c>
-      <c r="F154" t="s">
-        <v>108</v>
-      </c>
-      <c r="G154" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="155" spans="3:7">
-      <c r="C155" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F155" t="s">
-        <v>110</v>
-      </c>
       <c r="G155" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="156" spans="3:7">
-      <c r="C156" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="4:7">
+      <c r="D156" t="s">
+        <v>145</v>
+      </c>
+      <c r="F156" t="s">
+        <v>124</v>
+      </c>
+      <c r="G156" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7">
+      <c r="D157" t="s">
+        <v>146</v>
+      </c>
+      <c r="F157" t="s">
         <v>126</v>
       </c>
-      <c r="F156" t="s">
-        <v>111</v>
-      </c>
-      <c r="G156" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="157" spans="6:7">
-      <c r="F157" t="s">
-        <v>113</v>
-      </c>
       <c r="G157" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="4:7">
       <c r="D158" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F158" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G158" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" spans="4:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="4:9">
       <c r="D159" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F159" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G159" t="s">
-        <v>116</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I159" s="4"/>
     </row>
     <row r="160" spans="4:7">
       <c r="D160" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F160" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G160" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="161" spans="4:9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="161" spans="4:7">
       <c r="D161" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F161" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G161" t="s">
-        <v>120</v>
-      </c>
-      <c r="I161" s="2"/>
+        <v>132</v>
+      </c>
     </row>
     <row r="162" spans="4:7">
       <c r="D162" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F162" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G162" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="4:7">
       <c r="D163" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F163" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G163" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="4:7">
       <c r="D164" t="s">
-        <v>143</v>
-      </c>
-      <c r="F164" t="s">
-        <v>125</v>
-      </c>
-      <c r="G164" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="165" spans="4:7">
-      <c r="D165" t="s">
+        <v>152</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="G164" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165" spans="6:7">
       <c r="F165" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="G165" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="166" spans="4:7">
-      <c r="D166" t="s">
-        <v>145</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166" spans="6:7">
       <c r="F166" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G166" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="167" spans="6:7">
-      <c r="F167" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="168" spans="6:7">
-      <c r="F168" t="s">
-        <v>146</v>
-      </c>
-      <c r="G168" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="169" spans="6:7">
-      <c r="F169" t="s">
-        <v>147</v>
-      </c>
-      <c r="G169" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I19">
+  <mergeCells count="1">
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103">
+    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G120">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I130">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F135">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I145">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F150">
+    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G150">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I159">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F164">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G164">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F72">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:F83">
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G16">
+    <cfRule type="duplicateValues" dxfId="1" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G41">
+    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G66">
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G57">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:G70">
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75:G83">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75:G85">
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88:G99">
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103:G118">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G120:G127">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128:G133">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135:G147">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64:I68">
     <cfRule type="duplicateValues" dxfId="0" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="I71:I79">
     <cfRule type="duplicateValues" dxfId="0" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I117">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I132">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F138">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G138">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I147">
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
-    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G153">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I161">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F167">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G167">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71:F75">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:F86">
-    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G17">
-    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G44">
-    <cfRule type="duplicateValues" dxfId="1" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46:G69">
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57:G60">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71:G73">
-    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78:G86">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78:G88">
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91:G102">
-    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G106:G121">
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123:G130">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G131:G136">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G138:G150">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:I70">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:I81">
-    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D101;D108:D1048576;J127:J130;C1:C47;C53:C83;C88:C1048576;F57:F60;F131:F137">
-    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F130;F168:F1048576;F154:F166;F138:F152">
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  <conditionalFormatting sqref="C1:D26;D106:D1048576;J125:J128;C86:C1048576;C51:C81;C27:C45;D27:D99;F128:F134;F54:F57">
+    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F165:F1048576;F151:F163;F135:F149;F1:F127">
     <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G77;G89:G90;G103:G105;G122;G137;G151:G152;G170:G1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I124;I132:I146;I148:I160">
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G31;G33:G34">
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I55;I125:I131">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G168:G169;G154:G166">
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G148:G149;G167:G1048576;G86:G87;G100:G102;G119;G134;G1:G74">
+    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:J4">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:J34">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G28;G30:G31">
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I122;I146:I158;I130:I144">
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:I53;I123:I129">
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G165:G166;G151:G163">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/indice html.xlsx
+++ b/src/indice html.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12450"/>
+    <workbookView windowWidth="27945" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
   <si>
     <t>1. Introducción HTML</t>
   </si>
@@ -368,124 +368,94 @@
     <t>&lt;dialog&gt;</t>
   </si>
   <si>
-    <t>Elementos Obsoletos (HTML 4)</t>
-  </si>
-  <si>
     <t>&lt;time&gt;</t>
   </si>
   <si>
     <t>&lt;wbr&gt;</t>
   </si>
   <si>
+    <t>13. Elementos Incrustados</t>
+  </si>
+  <si>
+    <t>&lt;iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;embed&gt;</t>
+  </si>
+  <si>
+    <t>&lt;object&gt;</t>
+  </si>
+  <si>
+    <t>&lt;param&gt;</t>
+  </si>
+  <si>
+    <t>14. Etiquetas de Programación y Scripts</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;noscript&gt;</t>
+  </si>
+  <si>
+    <t>&lt;template&gt;</t>
+  </si>
+  <si>
+    <t>&lt;canvas&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;math&gt;</t>
+  </si>
+  <si>
+    <t>&lt;slot&gt;</t>
+  </si>
+  <si>
+    <t>15. Etiquetas Obsoletas o No Recomendadas</t>
+  </si>
+  <si>
     <t>&lt;acronym&gt;</t>
   </si>
   <si>
     <t>&lt;applet&gt;</t>
   </si>
   <si>
-    <t>13. Elementos Incrustados</t>
-  </si>
-  <si>
     <t>&lt;basefont&gt;</t>
   </si>
   <si>
     <t>&lt;big&gt;</t>
   </si>
   <si>
-    <t>&lt;iframe&gt;</t>
-  </si>
-  <si>
     <t>&lt;blink&gt;</t>
   </si>
   <si>
-    <t>&lt;embed&gt;</t>
-  </si>
-  <si>
     <t>&lt;center&gt;</t>
   </si>
   <si>
-    <t>&lt;object&gt;</t>
-  </si>
-  <si>
     <t>&lt;font&gt;</t>
   </si>
   <si>
-    <t>&lt;param&gt;</t>
-  </si>
-  <si>
     <t>&lt;frame&gt;</t>
   </si>
   <si>
     <t>&lt;frameset&gt;</t>
   </si>
   <si>
-    <t>14. Etiquetas de Programación y Scripts</t>
-  </si>
-  <si>
     <t>&lt;noframes&gt;</t>
   </si>
   <si>
     <t>&lt;strike&gt;</t>
   </si>
   <si>
-    <t>&lt;script&gt;</t>
-  </si>
-  <si>
     <t>&lt;tt&gt;</t>
   </si>
   <si>
-    <t>&lt;noscript&gt;</t>
-  </si>
-  <si>
-    <t>&lt;template&gt;</t>
-  </si>
-  <si>
-    <t>&lt;canvas&gt;</t>
-  </si>
-  <si>
-    <t>12. Etiquetas Obsoletas o No Recomendadas</t>
-  </si>
-  <si>
-    <t>&lt;svg&gt;</t>
-  </si>
-  <si>
-    <t>&lt;math&gt;</t>
-  </si>
-  <si>
-    <t>&lt;slot&gt;</t>
-  </si>
-  <si>
     <t>&lt;bgsound&gt;</t>
   </si>
   <si>
-    <t>15. Etiquetas Obsoletas o No Recomendadas</t>
-  </si>
-  <si>
     <t>&lt;marquee&gt;</t>
-  </si>
-  <si>
-    <t>&lt;acronym&gt;: Reemplazado por &lt;abbr&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;applet&gt;: Obsoleto, se usaba para incrustar Java.</t>
-  </si>
-  <si>
-    <t>&lt;bgsound&gt;: Obsoleto, reproduc铆a sonido en segundo plano.</t>
-  </si>
-  <si>
-    <t>&lt;center&gt;: Se reemplaza con CSS.</t>
-  </si>
-  <si>
-    <t>&lt;font&gt;: Se reemplaza con CSS.</t>
-  </si>
-  <si>
-    <t>&lt;frame&gt; y &lt;frameset&gt;: Obsoletos, reemplazados por &lt;iframe&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;marquee&gt;: Obsoleto, animaba texto en movimiento.</t>
-  </si>
-  <si>
-    <t>&lt;tt&gt;: Texto monoespaciado, reemplazado por &lt;code&gt;.</t>
   </si>
   <si>
     <t>&lt;shadow&gt;</t>
@@ -680,7 +650,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +666,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1000,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,16 +1024,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1060,89 +1042,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,6 +1132,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1157,12 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1727,1747 +1721,1454 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K166"/>
+  <dimension ref="A2:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="74.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="62.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="68.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="61.8571428571429" customWidth="1"/>
-    <col min="10" max="10" width="27.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="41.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="68.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="61.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="6:11">
-      <c r="F2" s="1" t="s">
+    <row r="2" ht="18.75" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" t="str">
+      <c r="E2" s="3"/>
+      <c r="F2" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="4:11">
-      <c r="D3" s="3"/>
-      <c r="I3" s="6" t="s">
+    <row r="3" ht="18.75" spans="4:6">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K3" t="str">
+      <c r="F3" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="3:11">
-      <c r="C4" s="3"/>
-      <c r="F4" s="3" t="s">
+    <row r="4" ht="18.75" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="str">
+      <c r="F4" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="4:11">
-      <c r="D5" s="4"/>
-      <c r="F5" t="s">
+    <row r="5" ht="18.75" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" t="str">
+      <c r="F5" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="3:10">
-      <c r="C6" s="4"/>
+    <row r="6" ht="18.75" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" ht="18.75" spans="3:10">
-      <c r="C7" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" ht="18.75" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" ht="18.75" spans="3:10">
-      <c r="C8" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" ht="18.75" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" ht="18.75" spans="3:10">
-      <c r="C9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" ht="18.75" spans="3:10">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" ht="18.75" spans="3:10">
-      <c r="C11" s="4"/>
-      <c r="F11" s="3" t="s">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" ht="18.75" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" ht="18.75" spans="1:5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" ht="18.75" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" ht="18.75" spans="9:10">
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" ht="18.75" spans="6:10">
-      <c r="F13" t="s">
+      <c r="B11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" ht="18.75" spans="1:5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" ht="18.75" spans="1:5">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G13" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" ht="18.75" spans="6:10">
-      <c r="F14" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" ht="18.75" spans="1:5">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" ht="18.75" spans="3:10">
-      <c r="C15" s="3"/>
-      <c r="F15" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" ht="18.75" spans="1:5">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" ht="18.75" spans="6:10">
-      <c r="F16" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" ht="18.75" spans="1:5">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" ht="18.75" spans="3:10">
-      <c r="C17" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" ht="18.75" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" ht="18.75" spans="3:10">
-      <c r="C18" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" ht="18.75" spans="1:5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="D18" s="4"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" ht="18.75" spans="3:10">
-      <c r="C19" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" ht="18.75" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" ht="18.75" spans="3:10">
-      <c r="C20" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" ht="18.75" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D20" s="4"/>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" ht="18.75" spans="3:10">
-      <c r="C21" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" ht="18.75" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D21" s="4"/>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" ht="18.75" spans="3:10">
-      <c r="C22" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" ht="18.75" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" ht="18.75" spans="3:10">
-      <c r="C23" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" ht="18.75" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D23" s="4"/>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" ht="18.75" spans="3:10">
-      <c r="C24" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" ht="18.75" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D24" s="4"/>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" ht="18.75" spans="3:10">
-      <c r="C25" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" ht="18.75" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D25" s="4"/>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" ht="18.75" spans="4:10">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" ht="18.75" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D26" s="4"/>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" ht="18.75" spans="3:10">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="F27" t="s">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" ht="18.75" spans="1:5">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G27" t="s">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" ht="18.75" spans="9:10">
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" ht="18.75" spans="3:10">
-      <c r="C29" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" ht="18.75" spans="4:5">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" ht="18.75" spans="2:5">
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" ht="18.75" spans="3:10">
-      <c r="C30" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" ht="18.75" spans="2:5">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
       <c r="D30" s="4"/>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" ht="18.75" spans="3:10">
-      <c r="C31" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" ht="18.75" spans="2:5">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
       <c r="D31" s="4"/>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" ht="18.75" spans="3:10">
-      <c r="C32" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" ht="18.75" spans="4:5">
       <c r="D32" s="4"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" ht="18.75" spans="3:10">
-      <c r="C33" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" ht="18.75" spans="1:5">
+      <c r="A33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D33" s="4"/>
-      <c r="F33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" ht="18.75" spans="3:10">
-      <c r="C34" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" ht="18.75" spans="1:5">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
       <c r="D34" s="4"/>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="F35" t="s">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="G35" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="F36" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="G36" t="s">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="3:7">
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="F37" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="G37" t="s">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="3:7">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="F38" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="G38" t="s">
+      <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="18.75" spans="3:9">
-      <c r="C39" s="4"/>
-      <c r="F39" t="s">
+    <row r="39" ht="18.75" spans="1:4">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="G39" t="s">
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" ht="18.75" spans="3:7">
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
-      <c r="F40" t="s">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="G40" t="s">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="3:7">
-      <c r="C41" s="4"/>
-      <c r="F41" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="G41" t="s">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" ht="18.75" spans="3:7">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="F43" s="3" t="s">
+    <row r="43" ht="18.75" spans="1:2">
+      <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="F44" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="G44" t="s">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="3:7">
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="F45" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="G45" t="s">
+      <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="4:7">
-      <c r="D46" s="4"/>
-      <c r="F46" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="G46" t="s">
+      <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="4:7">
-      <c r="D47" s="4"/>
-      <c r="F47" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="G47" t="s">
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="6:7">
-      <c r="F48" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="G48" t="s">
+      <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" ht="18.75" spans="4:7">
-      <c r="D49" s="3"/>
-      <c r="F49" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="G49" t="s">
+      <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="6:9">
-      <c r="F50" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="G50" t="s">
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="4:9">
-      <c r="D51" s="4"/>
-      <c r="F51" t="s">
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="G51" t="s">
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="4:9">
-      <c r="D52" s="4"/>
-      <c r="F52" t="s">
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="G52" t="s">
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="6:9">
-      <c r="F53" t="s">
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="G53" t="s">
+      <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" ht="18.75" spans="3:7">
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="F54" s="4" t="s">
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="B54" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" ht="18.75" spans="6:9">
-      <c r="F55" s="4" t="s">
+    <row r="55" ht="18.75" spans="1:4">
+      <c r="A55" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="B55" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="3:7">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="F56" s="4" t="s">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="3:7">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="F57" s="4" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" ht="18.75" spans="3:7">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="F59" s="3" t="s">
+    <row r="59" ht="18.75" spans="1:2">
+      <c r="A59" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="B59" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="3:7">
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="F61" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="G61" t="s">
+      <c r="B61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="4:7">
-      <c r="D62" s="4"/>
-      <c r="F62" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="G62" t="s">
+      <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="6:7">
-      <c r="F63" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="G63" t="s">
+      <c r="B63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" ht="18.75" spans="4:9">
-      <c r="D64" s="3"/>
-      <c r="F64" t="s">
+    <row r="64" ht="18.75" spans="1:4">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="G64" t="s">
+      <c r="B64" t="s">
         <v>62</v>
       </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" ht="18.75" spans="3:7">
-      <c r="C65" s="3"/>
-      <c r="F65" t="s">
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="G65" t="s">
+      <c r="B65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="4:9">
-      <c r="D66" s="4"/>
-      <c r="F66" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="G66" t="s">
+      <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="3:9">
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" ht="18.75" spans="3:9">
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="F68" s="3" t="s">
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" ht="18.75" spans="1:4">
+      <c r="A68" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="B68" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="4:7">
-      <c r="D70" s="4"/>
-      <c r="F70" s="4" t="s">
+      <c r="D68" s="10"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="B70" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" ht="18.75" spans="4:9">
-      <c r="D71" s="4"/>
-      <c r="F71" s="4" t="s">
+    <row r="71" ht="18.75" spans="1:4">
+      <c r="A71" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="4:6">
-      <c r="D72" s="4"/>
-      <c r="F72" s="4" t="s">
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" ht="18.75" spans="3:9">
-      <c r="C73" s="3"/>
-      <c r="D73" s="4"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="4:9">
-      <c r="D74" s="4"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" ht="18.75" spans="3:9">
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="F75" s="3" t="s">
+    <row r="73" spans="4:4">
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" ht="18.75" spans="1:4">
+      <c r="A75" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="B75" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="3:9">
-      <c r="C76" s="4"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" ht="18.75" spans="3:9">
-      <c r="C77" s="4"/>
-      <c r="D77" s="3"/>
-      <c r="F77" s="4" t="s">
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="B77" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="3:9">
-      <c r="C78" s="4"/>
-      <c r="F78" s="4" t="s">
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="B78" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="3:9">
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="F79" s="4" t="s">
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="B79" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="3:7">
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="F80" s="4" t="s">
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="B80" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="3:7">
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="F81" s="4" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="B81" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="4:9">
-      <c r="D82" s="4"/>
-      <c r="F82" s="4" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="B82" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" ht="18.75" spans="4:9">
-      <c r="D83" s="4"/>
-      <c r="F83" s="4" t="s">
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" ht="18.75" spans="1:4">
+      <c r="A83" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="B83" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="4:7">
-      <c r="D84" s="4"/>
-      <c r="F84" t="s">
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>78</v>
       </c>
-      <c r="G84" t="s">
+      <c r="B84" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="4:7">
-      <c r="D85" s="4"/>
-      <c r="F85" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>79</v>
       </c>
-      <c r="G85" t="s">
+      <c r="B85" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="4:7">
-      <c r="D86" s="4"/>
-      <c r="G86" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="4:6">
-      <c r="D87" s="4"/>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" ht="18.75" spans="4:7">
-      <c r="D88" s="4"/>
-      <c r="F88" s="3" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="10"/>
+    </row>
+    <row r="88" ht="18.75" spans="1:2">
+      <c r="A88" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="B88" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" ht="18.75" spans="3:4">
-      <c r="C89" s="3"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="4:7">
-      <c r="D90" s="4"/>
-      <c r="F90" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>82</v>
       </c>
-      <c r="G90" t="s">
+      <c r="B90" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="3:7">
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="F91" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>83</v>
       </c>
-      <c r="G91" t="s">
+      <c r="B91" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="3:7">
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="F92" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>84</v>
       </c>
-      <c r="G92" t="s">
+      <c r="B92" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="3:7">
-      <c r="C93" s="4"/>
-      <c r="F93" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>85</v>
       </c>
-      <c r="G93" t="s">
+      <c r="B93" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="94" ht="18.75" spans="3:7">
-      <c r="C94" s="4"/>
-      <c r="D94" s="3"/>
-      <c r="F94" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>86</v>
       </c>
-      <c r="G94" t="s">
+      <c r="B94" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="3:7">
-      <c r="C95" s="4"/>
-      <c r="F95" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>87</v>
       </c>
-      <c r="G95" t="s">
+      <c r="B95" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="3:7">
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="F96" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>88</v>
       </c>
-      <c r="G96" t="s">
+      <c r="B96" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="3:7">
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="F97" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>89</v>
       </c>
-      <c r="G97" t="s">
+      <c r="B97" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="98" ht="18.75" spans="3:9">
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="F98" t="s">
+    <row r="98" ht="18.75" spans="1:4">
+      <c r="A98" t="s">
         <v>90</v>
       </c>
-      <c r="G98" t="s">
+      <c r="B98" t="s">
         <v>90</v>
       </c>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="3:7">
-      <c r="C99" s="4"/>
-      <c r="F99" t="s">
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>91</v>
       </c>
-      <c r="G99" t="s">
+      <c r="B99" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="3:6">
-      <c r="C100" s="4"/>
-      <c r="F100" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="6:6">
-      <c r="F101" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" ht="18.75" spans="6:7">
-      <c r="F103" s="3" t="s">
+    <row r="103" ht="18.75" spans="1:2">
+      <c r="A103" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="B103" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="104" ht="18.75" spans="3:3">
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="6:7">
-      <c r="F105" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>95</v>
       </c>
-      <c r="G105" t="s">
+      <c r="B105" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="3:7">
-      <c r="C106" s="4"/>
-      <c r="F106" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>96</v>
       </c>
-      <c r="G106" t="s">
+      <c r="B106" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="107" ht="18.75" spans="3:7">
-      <c r="C107" s="4"/>
-      <c r="D107" s="3"/>
-      <c r="F107" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>97</v>
       </c>
-      <c r="G107" t="s">
+      <c r="B107" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="3:7">
-      <c r="C108" s="4"/>
-      <c r="F108" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>98</v>
       </c>
-      <c r="G108" t="s">
+      <c r="B108" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="3:7">
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="F109" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>99</v>
       </c>
-      <c r="G109" t="s">
+      <c r="B109" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="3:7">
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="F110" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>100</v>
       </c>
-      <c r="G110" t="s">
+      <c r="B110" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="3:7">
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="F111" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>101</v>
       </c>
-      <c r="G111" t="s">
+      <c r="B111" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="3:7">
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="F112" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>102</v>
       </c>
-      <c r="G112" t="s">
+      <c r="B112" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="3:7">
-      <c r="C113" s="4"/>
-      <c r="F113" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>103</v>
       </c>
-      <c r="G113" t="s">
+      <c r="B113" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="114" ht="18.75" spans="3:7">
-      <c r="C114" s="4"/>
-      <c r="D114" s="3"/>
-      <c r="F114" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>104</v>
       </c>
-      <c r="G114" t="s">
+      <c r="B114" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="115" ht="18.75" spans="3:9">
-      <c r="C115" s="4"/>
-      <c r="F115" t="s">
+    <row r="115" ht="18.75" spans="1:4">
+      <c r="A115" t="s">
         <v>105</v>
       </c>
-      <c r="G115" t="s">
+      <c r="B115" t="s">
         <v>105</v>
       </c>
-      <c r="I115" s="3"/>
-    </row>
-    <row r="116" spans="3:7">
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="F116" t="s">
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>106</v>
       </c>
-      <c r="G116" t="s">
+      <c r="B116" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="3:7">
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="F117" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>107</v>
       </c>
-      <c r="G117" t="s">
+      <c r="B117" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="3:7">
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="F118" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>108</v>
       </c>
-      <c r="G118" t="s">
+      <c r="B118" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="3:4">
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" ht="18.75" spans="4:7">
-      <c r="D120" s="4"/>
-      <c r="F120" s="3" t="s">
+    <row r="120" ht="18.75" spans="1:2">
+      <c r="A120" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="B120" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="4:4">
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="4:7">
-      <c r="D122" s="4"/>
-      <c r="F122" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>110</v>
       </c>
-      <c r="G122" t="s">
+      <c r="B122" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="123" ht="18.75" spans="3:9">
-      <c r="C123" s="3"/>
-      <c r="D123" s="4"/>
-      <c r="F123" t="s">
+    <row r="123" ht="18.75" spans="1:4">
+      <c r="A123" t="s">
         <v>111</v>
       </c>
-      <c r="G123" t="s">
+      <c r="B123" t="s">
         <v>111</v>
       </c>
-      <c r="I123" s="3"/>
-    </row>
-    <row r="124" spans="6:7">
-      <c r="F124" t="s">
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>112</v>
       </c>
-      <c r="G124" t="s">
+      <c r="B124" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="125" ht="18.75" spans="3:10">
-      <c r="C125" s="4"/>
-      <c r="D125" s="3" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
         <v>113</v>
       </c>
-      <c r="F125" t="s">
+      <c r="B125" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
         <v>114</v>
       </c>
-      <c r="G125" t="s">
+      <c r="B126" t="s">
         <v>114</v>
       </c>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-    </row>
-    <row r="126" spans="3:10">
-      <c r="C126" s="4"/>
-      <c r="F126" t="s">
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="4:5">
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" ht="18.75" spans="1:5">
+      <c r="A128" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G126" t="s">
+      <c r="B128" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="3:10">
-      <c r="C127" s="4"/>
-      <c r="D127" s="4" t="s">
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="10"/>
+    </row>
+    <row r="130" ht="18.75" spans="1:4">
+      <c r="A130" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-    </row>
-    <row r="128" ht="18.75" spans="3:10">
-      <c r="C128" s="4"/>
-      <c r="D128" s="4" t="s">
+      <c r="B130" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="B131" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="B132" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-    </row>
-    <row r="129" spans="3:9">
-      <c r="C129" s="4"/>
-      <c r="D129" s="4" t="s">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I129" s="4"/>
-    </row>
-    <row r="130" ht="18.75" spans="4:9">
-      <c r="D130" s="4" t="s">
+      <c r="B133" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="10"/>
+    </row>
+    <row r="135" ht="18.75" spans="1:2">
+      <c r="A135" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="B135" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>121</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="B137" t="s">
         <v>121</v>
       </c>
-      <c r="I130" s="3"/>
-    </row>
-    <row r="131" spans="4:7">
-      <c r="D131" s="4" t="s">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>122</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="B138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>123</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="B139" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="4:7">
-      <c r="D132" s="4" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>124</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="B140" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>116</v>
+      </c>
+      <c r="B141" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>118</v>
+      </c>
+      <c r="B143" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" ht="18.75" spans="1:4">
+      <c r="A145" t="s">
         <v>125</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="B145" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="133" ht="18.75" spans="3:7">
-      <c r="C133" s="3"/>
-      <c r="D133" s="4" t="s">
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>126</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="B146" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>127</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="B147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="4:6">
-      <c r="D134" s="4" t="s">
+    <row r="150" ht="18.75" spans="1:2">
+      <c r="A150" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F134" s="4"/>
-    </row>
-    <row r="135" ht="18.75" spans="3:7">
-      <c r="C135" s="4"/>
-      <c r="D135" s="4" t="s">
+      <c r="B150" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="B151" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>130</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="B152" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="4"/>
-      <c r="D136" s="4" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="137" spans="3:7">
-      <c r="C137" s="4"/>
-      <c r="D137" s="4" t="s">
+      <c r="B153" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>132</v>
       </c>
-      <c r="F137" t="s">
+      <c r="B154" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>133</v>
       </c>
-      <c r="G137" t="s">
+      <c r="B155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="3:7">
-      <c r="C138" s="4"/>
-      <c r="D138" s="4" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>134</v>
       </c>
-      <c r="F138" t="s">
+      <c r="B156" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>135</v>
       </c>
-      <c r="G138" t="s">
+      <c r="B157" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="3:7">
-      <c r="C139" s="4"/>
-      <c r="F139" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>136</v>
       </c>
-      <c r="G139" t="s">
+      <c r="B158" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="3:7">
-      <c r="C140" s="4"/>
-      <c r="F140" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
         <v>137</v>
       </c>
-      <c r="G140" t="s">
+      <c r="B159" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="141" spans="6:7">
-      <c r="F141" t="s">
-        <v>121</v>
-      </c>
-      <c r="G141" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="142" spans="6:7">
-      <c r="F142" t="s">
-        <v>123</v>
-      </c>
-      <c r="G142" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="143" spans="6:7">
-      <c r="F143" t="s">
-        <v>125</v>
-      </c>
-      <c r="G143" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="144" ht="18.75" spans="3:7">
-      <c r="C144" s="3" t="s">
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>138</v>
       </c>
-      <c r="F144" t="s">
-        <v>127</v>
-      </c>
-      <c r="G144" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="145" ht="18.75" spans="6:9">
-      <c r="F145" t="s">
+      <c r="B160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>139</v>
       </c>
-      <c r="G145" t="s">
+      <c r="B161" t="s">
         <v>139</v>
       </c>
-      <c r="I145" s="3"/>
-    </row>
-    <row r="146" spans="3:7">
-      <c r="C146" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F146" t="s">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>140</v>
       </c>
-      <c r="G146" t="s">
+      <c r="B162" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147" spans="3:7">
-      <c r="C147" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F147" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>141</v>
       </c>
-      <c r="G147" t="s">
+      <c r="B163" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="148" spans="3:3">
-      <c r="C148" s="4" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="149" spans="3:3">
-      <c r="C149" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="150" ht="18.75" spans="3:7">
-      <c r="C150" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F150" s="3" t="s">
+      <c r="B164" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
         <v>143</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="B165" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="3:7">
-      <c r="C151" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F151" t="s">
-        <v>116</v>
-      </c>
-      <c r="G151" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="152" spans="3:7">
-      <c r="C152" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F152" t="s">
-        <v>117</v>
-      </c>
-      <c r="G152" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="153" spans="3:7">
-      <c r="C153" s="4" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>144</v>
       </c>
-      <c r="F153" t="s">
-        <v>119</v>
-      </c>
-      <c r="G153" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="154" spans="3:7">
-      <c r="C154" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F154" t="s">
-        <v>120</v>
-      </c>
-      <c r="G154" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="155" spans="6:7">
-      <c r="F155" t="s">
-        <v>122</v>
-      </c>
-      <c r="G155" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="156" spans="4:7">
-      <c r="D156" t="s">
-        <v>145</v>
-      </c>
-      <c r="F156" t="s">
-        <v>124</v>
-      </c>
-      <c r="G156" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="157" spans="4:7">
-      <c r="D157" t="s">
-        <v>146</v>
-      </c>
-      <c r="F157" t="s">
-        <v>126</v>
-      </c>
-      <c r="G157" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="158" spans="4:7">
-      <c r="D158" t="s">
-        <v>147</v>
-      </c>
-      <c r="F158" t="s">
-        <v>128</v>
-      </c>
-      <c r="G158" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="159" spans="4:9">
-      <c r="D159" t="s">
-        <v>148</v>
-      </c>
-      <c r="F159" t="s">
-        <v>129</v>
-      </c>
-      <c r="G159" t="s">
-        <v>129</v>
-      </c>
-      <c r="I159" s="4"/>
-    </row>
-    <row r="160" spans="4:7">
-      <c r="D160" t="s">
-        <v>149</v>
-      </c>
-      <c r="F160" t="s">
-        <v>131</v>
-      </c>
-      <c r="G160" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="161" spans="4:7">
-      <c r="D161" t="s">
-        <v>150</v>
-      </c>
-      <c r="F161" t="s">
-        <v>132</v>
-      </c>
-      <c r="G161" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="162" spans="4:7">
-      <c r="D162" t="s">
-        <v>150</v>
-      </c>
-      <c r="F162" t="s">
-        <v>134</v>
-      </c>
-      <c r="G162" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="163" spans="4:7">
-      <c r="D163" t="s">
-        <v>151</v>
-      </c>
-      <c r="F163" t="s">
-        <v>142</v>
-      </c>
-      <c r="G163" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="164" spans="4:7">
-      <c r="D164" t="s">
-        <v>152</v>
-      </c>
-      <c r="F164" s="4" t="s">
+      <c r="B166" t="s">
         <v>144</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="165" spans="6:7">
-      <c r="F165" t="s">
-        <v>153</v>
-      </c>
-      <c r="G165" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="166" spans="6:7">
-      <c r="F166" t="s">
-        <v>154</v>
-      </c>
-      <c r="G166" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="A19">
     <cfRule type="duplicateValues" dxfId="0" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="B19">
     <cfRule type="duplicateValues" dxfId="1" priority="42"/>
     <cfRule type="duplicateValues" dxfId="1" priority="43"/>
     <cfRule type="duplicateValues" dxfId="0" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="B29">
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
     <cfRule type="duplicateValues" dxfId="1" priority="27"/>
     <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="0" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="B33">
     <cfRule type="duplicateValues" dxfId="0" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
+  <conditionalFormatting sqref="D39">
     <cfRule type="duplicateValues" dxfId="0" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="A43">
     <cfRule type="duplicateValues" dxfId="0" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="B43">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="D55">
     <cfRule type="duplicateValues" dxfId="0" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+  <conditionalFormatting sqref="A59">
     <cfRule type="duplicateValues" dxfId="0" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="B59">
     <cfRule type="duplicateValues" dxfId="0" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
+  <conditionalFormatting sqref="D82">
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
+  <conditionalFormatting sqref="D83">
     <cfRule type="duplicateValues" dxfId="0" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
+  <conditionalFormatting sqref="A87">
     <cfRule type="duplicateValues" dxfId="0" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
+  <conditionalFormatting sqref="A88">
     <cfRule type="duplicateValues" dxfId="0" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
+  <conditionalFormatting sqref="B88">
     <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
+  <conditionalFormatting sqref="D98">
     <cfRule type="duplicateValues" dxfId="0" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103">
+  <conditionalFormatting sqref="A103">
     <cfRule type="duplicateValues" dxfId="0" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G103">
+  <conditionalFormatting sqref="B103">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I115">
+  <conditionalFormatting sqref="D115">
     <cfRule type="duplicateValues" dxfId="0" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
+  <conditionalFormatting sqref="A120">
     <cfRule type="duplicateValues" dxfId="0" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G120">
+  <conditionalFormatting sqref="B120">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I130">
+  <conditionalFormatting sqref="D130">
     <cfRule type="duplicateValues" dxfId="0" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F135">
+  <conditionalFormatting sqref="A135">
     <cfRule type="duplicateValues" dxfId="0" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G135">
+  <conditionalFormatting sqref="B135">
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I145">
+  <conditionalFormatting sqref="D145">
     <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F150">
+  <conditionalFormatting sqref="A150">
     <cfRule type="duplicateValues" dxfId="0" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G150">
+  <conditionalFormatting sqref="B150">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I159">
+  <conditionalFormatting sqref="D159">
     <cfRule type="duplicateValues" dxfId="0" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F164">
+  <conditionalFormatting sqref="A164">
     <cfRule type="duplicateValues" dxfId="0" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G164">
+  <conditionalFormatting sqref="B164">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68:F72">
+  <conditionalFormatting sqref="A68:A72">
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:F83">
+  <conditionalFormatting sqref="A75:A83">
     <cfRule type="duplicateValues" dxfId="0" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G16">
+  <conditionalFormatting sqref="B13:B16">
     <cfRule type="duplicateValues" dxfId="1" priority="45"/>
     <cfRule type="duplicateValues" dxfId="1" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G41">
+  <conditionalFormatting sqref="B33:B41">
     <cfRule type="duplicateValues" dxfId="1" priority="37"/>
     <cfRule type="duplicateValues" dxfId="1" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G66">
+  <conditionalFormatting sqref="B43:B66">
     <cfRule type="duplicateValues" dxfId="1" priority="32"/>
     <cfRule type="duplicateValues" dxfId="1" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G57">
+  <conditionalFormatting sqref="B54:B57">
     <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68:G70">
+  <conditionalFormatting sqref="B68:B70">
     <cfRule type="duplicateValues" dxfId="1" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
     <cfRule type="duplicateValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:G83">
+  <conditionalFormatting sqref="B75:B83">
     <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:G85">
+  <conditionalFormatting sqref="B75:B85">
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
     <cfRule type="duplicateValues" dxfId="1" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88:G99">
+  <conditionalFormatting sqref="B88:B99">
     <cfRule type="duplicateValues" dxfId="1" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G103:G118">
+  <conditionalFormatting sqref="B103:B118">
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G120:G127">
+  <conditionalFormatting sqref="B120:B127">
     <cfRule type="duplicateValues" dxfId="1" priority="12"/>
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128:G133">
+  <conditionalFormatting sqref="B128:B133">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G135:G147">
+  <conditionalFormatting sqref="B135:B147">
     <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="1" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I68">
+  <conditionalFormatting sqref="D64:D68">
     <cfRule type="duplicateValues" dxfId="0" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:I79">
+  <conditionalFormatting sqref="D71:D79">
     <cfRule type="duplicateValues" dxfId="0" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D26;D106:D1048576;J125:J128;C86:C1048576;C51:C81;C27:C45;D27:D99;F128:F134;F54:F57">
-    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F165:F1048576;F151:F163;F135:F149;F1:F127">
+  <conditionalFormatting sqref="A165:A1048576;A1:A127;A135:A149;A151:A163">
     <cfRule type="duplicateValues" dxfId="1" priority="66"/>
     <cfRule type="duplicateValues" dxfId="1" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G148:G149;G167:G1048576;G86:G87;G100:G102;G119;G134;G1:G74">
+  <conditionalFormatting sqref="B148:B149;B1:B74;B134;B119;B100:B102;B86:B87;B167:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J4">
+  <conditionalFormatting sqref="D3:E4">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J34">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E34">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G28;G30:G31">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B28;B30:B31">
     <cfRule type="duplicateValues" dxfId="1" priority="40"/>
     <cfRule type="duplicateValues" dxfId="1" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:I122;I146:I158;I130:I144">
+  <conditionalFormatting sqref="D35:D122;D130:D144;D146:D158">
     <cfRule type="duplicateValues" dxfId="1" priority="50"/>
     <cfRule type="duplicateValues" dxfId="1" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:I53;I123:I129">
+  <conditionalFormatting sqref="D50:D53;D123:D129">
     <cfRule type="duplicateValues" dxfId="0" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G165:G166;G151:G163">
+  <conditionalFormatting sqref="A54:A57;A128:A134;E125:E128">
+    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B165:B166;B151:B163">
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
     <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>

--- a/src/indice html.xlsx
+++ b/src/indice html.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12000"/>
+    <workbookView windowWidth="23040" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="152">
   <si>
     <t>1. Introducción HTML</t>
   </si>
@@ -113,7 +113,7 @@
     <t>&lt;address&gt;</t>
   </si>
   <si>
-    <t>5.Elementos de Contenedor y Genéricos</t>
+    <t>5. ETiqueta Contenedora y Genérica</t>
   </si>
   <si>
     <t>&lt;div&gt;</t>
@@ -128,18 +128,33 @@
     <t>6. Etiquetas de Texto</t>
   </si>
   <si>
+    <t>Encabezados</t>
+  </si>
+  <si>
     <t>&lt;h1&gt; a &lt;h6&gt;</t>
   </si>
   <si>
+    <t>Parrafos</t>
+  </si>
+  <si>
     <t>&lt;p&gt;</t>
   </si>
   <si>
+    <t>salto</t>
+  </si>
+  <si>
     <t>&lt;br&gt;</t>
   </si>
   <si>
+    <t>regla</t>
+  </si>
+  <si>
     <t>&lt;hr&gt;</t>
   </si>
   <si>
+    <t>Citas</t>
+  </si>
+  <si>
     <t>&lt;blockquote&gt;</t>
   </si>
   <si>
@@ -149,88 +164,94 @@
     <t>&lt;q&gt;</t>
   </si>
   <si>
+    <t>6. Formateo de Texto</t>
+  </si>
+  <si>
+    <t>7. Formateo de Texto</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;em&gt;</t>
+  </si>
+  <si>
+    <t>&lt;mark&gt;</t>
+  </si>
+  <si>
+    <t>&lt;small&gt;</t>
+  </si>
+  <si>
+    <t>&lt;del&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ins&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sub&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sup&gt;</t>
+  </si>
+  <si>
+    <t>&lt;code&gt;</t>
+  </si>
+  <si>
+    <t>&lt;kbd&gt;</t>
+  </si>
+  <si>
+    <t>&lt;samp&gt;</t>
+  </si>
+  <si>
+    <t>&lt;var&gt;</t>
+  </si>
+  <si>
+    <t>preformateado</t>
+  </si>
+  <si>
+    <t>&lt;pre&gt;</t>
+  </si>
+  <si>
+    <t>7. Listas</t>
+  </si>
+  <si>
+    <t>8. Listas</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dl&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dt&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dd&gt;</t>
+  </si>
+  <si>
+    <t>8. Enlaces e Hiperv铆nculos</t>
+  </si>
+  <si>
+    <t>9. Enlaces e Hiperv铆nculos</t>
+  </si>
+  <si>
+    <t>&lt;a&gt;</t>
+  </si>
+  <si>
     <t>&lt;abbr&gt;</t>
-  </si>
-  <si>
-    <t>6. Formateo de Texto</t>
-  </si>
-  <si>
-    <t>7. Formateo de Texto</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;</t>
-  </si>
-  <si>
-    <t>&lt;em&gt;</t>
-  </si>
-  <si>
-    <t>&lt;mark&gt;</t>
-  </si>
-  <si>
-    <t>&lt;small&gt;</t>
-  </si>
-  <si>
-    <t>&lt;del&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ins&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sub&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sup&gt;</t>
-  </si>
-  <si>
-    <t>&lt;code&gt;</t>
-  </si>
-  <si>
-    <t>&lt;kbd&gt;</t>
-  </si>
-  <si>
-    <t>&lt;samp&gt;</t>
-  </si>
-  <si>
-    <t>&lt;var&gt;</t>
-  </si>
-  <si>
-    <t>7. Listas</t>
-  </si>
-  <si>
-    <t>8. Listas</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dl&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dt&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dd&gt;</t>
-  </si>
-  <si>
-    <t>8. Enlaces e Hiperv铆nculos</t>
-  </si>
-  <si>
-    <t>9. Enlaces e Hiperv铆nculos</t>
-  </si>
-  <si>
-    <t>&lt;a&gt;</t>
   </si>
   <si>
     <t>download</t>
@@ -650,7 +671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,12 +687,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +1015,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,16 +1039,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1042,89 +1057,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,9 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1721,21 +1733,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F166"/>
+  <dimension ref="A2:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="41.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="68.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="61.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="41.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="68.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="61.8611111111111" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75" spans="1:6">
+    <row r="2" ht="18" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="4:6">
+    <row r="3" ht="18" spans="4:6">
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1761,7 +1773,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" ht="18" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1789,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" ht="18" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1807,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:5">
+    <row r="6" ht="18" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1805,7 +1817,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="18.75" spans="1:5">
+    <row r="7" ht="18" spans="1:5">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1815,7 +1827,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="18.75" spans="1:5">
+    <row r="8" ht="18" spans="1:5">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1825,19 +1837,19 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="18.75" spans="1:5">
+    <row r="9" ht="18" spans="1:5">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="18.75" spans="1:5">
+    <row r="10" ht="18" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="18.75" spans="1:5">
+    <row r="11" ht="18" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1845,13 +1857,13 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="18.75" spans="1:5">
+    <row r="12" ht="18" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="18.75" spans="1:5">
+    <row r="13" ht="18" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1861,7 +1873,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" ht="18.75" spans="1:5">
+    <row r="14" ht="18" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1871,7 +1883,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="18.75" spans="1:5">
+    <row r="15" ht="18" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1893,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="18.75" spans="1:5">
+    <row r="16" ht="18" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1891,8 +1903,8 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="18.75" spans="1:5">
-      <c r="A17" s="7" t="s">
+    <row r="17" ht="18" spans="1:5">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1901,13 +1913,13 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="18.75" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+    <row r="18" ht="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="18.75" spans="1:5">
+    <row r="19" ht="18" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1917,7 +1929,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="18.75" spans="1:5">
+    <row r="20" ht="18" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1939,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" ht="18.75" spans="1:5">
+    <row r="21" ht="18" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1937,7 +1949,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" ht="18.75" spans="1:5">
+    <row r="22" ht="18" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -1947,7 +1959,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" ht="18.75" spans="1:5">
+    <row r="23" ht="18" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -1957,7 +1969,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" ht="18.75" spans="1:5">
+    <row r="24" ht="18" spans="1:5">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1967,7 +1979,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" ht="18.75" spans="1:5">
+    <row r="25" ht="18" spans="1:5">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -1977,7 +1989,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" ht="18.75" spans="1:5">
+    <row r="26" ht="18" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -1987,7 +1999,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" ht="18.75" spans="1:5">
+    <row r="27" ht="18" spans="1:5">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -1997,835 +2009,825 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" ht="18.75" spans="4:5">
+    <row r="28" ht="18" spans="4:5">
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" ht="18.75" spans="2:5">
-      <c r="B29" s="9" t="s">
+    <row r="29" ht="18" spans="2:5">
+      <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" ht="18.75" spans="2:5">
+    <row r="30" ht="18" spans="2:5">
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" ht="18.75" spans="2:5">
+    <row r="31" ht="18" spans="2:5">
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" ht="18.75" spans="4:5">
+    <row r="32" ht="18" spans="4:5">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" ht="18.75" spans="1:5">
-      <c r="A33" s="9" t="s">
+    <row r="33" ht="18" spans="1:5">
+      <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" ht="18.75" spans="1:5">
-      <c r="A34" t="s">
+    <row r="34" ht="18" spans="1:5">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>33</v>
+      <c r="B34" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
+      <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" ht="18.75" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" ht="18.75" spans="1:2">
-      <c r="A43" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" ht="18" spans="1:2">
+      <c r="A43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" ht="18.75" spans="1:4">
-      <c r="A55" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="9"/>
+      <c r="A54" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" ht="18" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>55</v>
+      <c r="A56" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" ht="18.75" spans="1:2">
-      <c r="A59" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
+      <c r="A57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" ht="18" spans="1:2">
+      <c r="A60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" ht="18.75" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" ht="18" spans="1:4">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" ht="18.75" spans="1:4">
-      <c r="A68" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" ht="18.75" spans="1:4">
-      <c r="A71" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="4:4">
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" ht="18.75" spans="1:4">
-      <c r="A75" s="9" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" ht="18" spans="1:4">
+      <c r="A69" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="71" customFormat="1" spans="1:2">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:1">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:1">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="9"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="10"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" ht="18" spans="1:4">
+      <c r="A77" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" ht="18.75" spans="1:4">
-      <c r="A83" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="A79" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B79" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B80" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" ht="18" spans="1:4">
+      <c r="A85" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
       <c r="B86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="10"/>
-    </row>
-    <row r="88" ht="18.75" spans="1:2">
-      <c r="A88" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9"/>
+    </row>
+    <row r="90" ht="18" spans="1:2">
+      <c r="A90" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" ht="18.75" spans="1:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" s="9"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" ht="18" spans="1:4">
       <c r="A100" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" ht="18.75" spans="1:2">
-      <c r="A103" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" ht="18" spans="1:2">
+      <c r="A105" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" ht="18.75" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
-      </c>
-      <c r="D115" s="9"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" ht="18" spans="1:4">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>107</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="120" ht="18.75" spans="1:2">
-      <c r="A120" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>110</v>
-      </c>
-      <c r="B122" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="123" ht="18.75" spans="1:4">
-      <c r="A123" t="s">
-        <v>111</v>
-      </c>
-      <c r="B123" t="s">
-        <v>111</v>
-      </c>
-      <c r="D123" s="9"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" ht="18" spans="1:2">
+      <c r="A122" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" ht="18" spans="1:4">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
-      </c>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-    </row>
-    <row r="126" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>114</v>
-      </c>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-    </row>
-    <row r="127" spans="4:5">
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-    </row>
-    <row r="128" ht="18.75" spans="1:5">
-      <c r="A128" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" s="10"/>
-    </row>
-    <row r="130" ht="18.75" spans="1:4">
-      <c r="A130" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+      <c r="B127" t="s">
+        <v>120</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>121</v>
+      </c>
+      <c r="B128" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" ht="18" spans="1:5">
+      <c r="A130" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D130" s="9"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" ht="18" spans="1:4">
+      <c r="A132" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="10"/>
-    </row>
-    <row r="135" ht="18.75" spans="1:2">
+      <c r="A133" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>121</v>
-      </c>
-      <c r="B137" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>122</v>
-      </c>
-      <c r="B138" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="9"/>
+    </row>
+    <row r="137" ht="18" spans="1:2">
+      <c r="A137" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B140" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B143" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B144" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" ht="18.75" spans="1:4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>125</v>
       </c>
       <c r="B145" t="s">
         <v>125</v>
       </c>
-      <c r="D145" s="9"/>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
@@ -2835,149 +2837,166 @@
         <v>126</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" ht="18" spans="1:4">
       <c r="A147" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B147" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="150" ht="18.75" spans="1:2">
-      <c r="A150" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>129</v>
-      </c>
-      <c r="B151" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>130</v>
-      </c>
-      <c r="B152" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>133</v>
+      </c>
+      <c r="B148" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>134</v>
+      </c>
+      <c r="B149" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" ht="18" spans="1:2">
+      <c r="A152" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B153" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B154" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B156" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B157" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B158" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B159" t="s">
-        <v>137</v>
-      </c>
-      <c r="D159" s="10"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B160" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B161" t="s">
-        <v>139</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D161" s="9"/>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B162" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B163" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>142</v>
+      <c r="A164" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B165" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>144</v>
-      </c>
-      <c r="B166" t="s">
-        <v>144</v>
+      <c r="A166" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>151</v>
+      </c>
+      <c r="B168" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2985,192 +3004,219 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="0" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="1" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="1" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:E34">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="0" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
     <cfRule type="duplicateValues" dxfId="0" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="duplicateValues" dxfId="0" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161">
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166">
+    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B166">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A70">
+    <cfRule type="duplicateValues" dxfId="0" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A85">
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B16">
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:B70">
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B85">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B87">
+    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90:B101">
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B120">
+    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:B129">
+    <cfRule type="duplicateValues" dxfId="1" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130:B135">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137:B149">
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D69">
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:D81">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A33;A36:A70;A72;A75:A129;A167:A1048576;A137:A151;A153:A165">
+    <cfRule type="duplicateValues" dxfId="1" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B33;B36:B70;B72;B75:B76;B88:B89;B102:B104;B150:B151;B169:B1048576;B136;B121">
+    <cfRule type="duplicateValues" dxfId="2" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E4">
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E33">
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B28;B30:B31">
+    <cfRule type="duplicateValues" dxfId="1" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33;B36:B41;B58;B72">
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D70;D72;D75:D124;D132:D146;D148:D160">
+    <cfRule type="duplicateValues" dxfId="1" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B67;B43:B57">
+    <cfRule type="duplicateValues" dxfId="1" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125:D131;D50:D53">
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127:E130;A130:A136;A54:A57">
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:B168;B153:B165">
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D130">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D145">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B150">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A164">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A72">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A83">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B16">
-    <cfRule type="duplicateValues" dxfId="1" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B41">
-    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B66">
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B57">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B70">
-    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B83">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B85">
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B99">
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103:B118">
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:B127">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B133">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B147">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D68">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D79">
-    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A165:A1048576;A1:A127;A135:A149;A151:A163">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148:B149;B1:B74;B134;B119;B100:B102;B86:B87;B167:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E4">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:E34">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B28;B30:B31">
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D122;D130:D144;D146:D158">
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:D53;D123:D129">
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A57;A128:A134;E125:E128">
-    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B165:B166;B151:B163">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
